--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +835,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +928,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1008,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1055,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1101,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1181,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1228,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1274,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1342,10 +1354,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1389,28 +1401,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1435,28 +1447,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1515,10 +1527,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1562,28 +1574,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1608,28 +1620,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1688,10 +1700,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1735,28 +1747,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1781,28 +1793,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3050,10 +3062,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3097,28 +3109,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3143,28 +3155,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3223,10 +3235,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3270,28 +3282,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3316,28 +3328,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3396,10 +3408,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3443,28 +3455,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3489,28 +3501,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3569,10 +3581,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3616,28 +3628,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3662,28 +3674,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3742,10 +3754,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3789,28 +3801,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3835,28 +3847,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3915,10 +3927,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3962,28 +3974,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4008,28 +4020,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4088,10 +4100,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4135,28 +4147,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4181,28 +4193,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4261,10 +4273,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4308,28 +4320,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4354,28 +4366,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4608,10 +4620,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4655,28 +4667,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4701,28 +4713,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4781,10 +4793,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4828,28 +4840,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4874,28 +4886,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4954,10 +4966,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5001,28 +5013,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5047,28 +5059,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5127,10 +5139,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5174,28 +5186,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5220,28 +5232,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5300,10 +5312,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5347,28 +5359,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5393,28 +5405,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5473,10 +5485,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5520,28 +5532,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5566,28 +5578,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5646,10 +5658,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5693,28 +5705,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5739,28 +5751,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5819,10 +5831,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5866,28 +5878,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5912,28 +5924,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5992,10 +6004,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6039,28 +6051,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6085,28 +6097,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6165,10 +6177,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6212,28 +6224,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6258,28 +6270,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6338,10 +6350,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6385,28 +6397,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6431,28 +6443,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6511,10 +6523,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6558,28 +6570,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6604,28 +6616,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6684,10 +6696,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6731,28 +6743,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6777,28 +6789,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6857,10 +6869,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6904,28 +6916,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6950,28 +6962,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7030,10 +7042,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7077,28 +7089,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7123,28 +7135,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7464,10 +7476,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7511,28 +7523,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7557,28 +7569,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7637,10 +7649,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7684,28 +7696,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7730,28 +7742,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7810,10 +7822,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7857,28 +7869,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7903,28 +7915,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7983,10 +7995,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8030,28 +8042,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8076,28 +8088,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8156,10 +8168,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8203,28 +8215,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8249,28 +8261,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8329,10 +8341,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8376,28 +8388,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8422,28 +8434,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8502,10 +8514,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8549,28 +8561,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8595,28 +8607,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8675,10 +8687,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
